--- a/XcelUnify/Data/master.xlsx
+++ b/XcelUnify/Data/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud.sharepoint.com/teams/SEFSASO/Shared Documents/General/Course and subject - Staff, Course and subject info/2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_work\HD\XcelUnify\XcelUnify\XcelUnify\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C3FF22-1525-47DA-BC82-4E96397D89A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2B8DD3-799F-474F-AB0B-EDFE85539490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="3000" windowWidth="31890" windowHeight="15735" xr2:uid="{8EE778F5-CB63-46D6-93DA-ECB5DB777945}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EE778F5-CB63-46D6-93DA-ECB5DB777945}"/>
   </bookViews>
   <sheets>
     <sheet name="2026 subject data for workload" sheetId="2" r:id="rId1"/>
@@ -3523,7 +3523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4541,11 +4541,11 @@
   </sheetPr>
   <dimension ref="A1:X247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="44.875" style="4" customWidth="1"/>
@@ -4567,12 +4567,12 @@
     <col min="25" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" customHeight="1">
+    <row r="1" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5" customHeight="1">
+    <row r="2" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="X2" s="122"/>
     </row>
-    <row r="3" spans="1:24" ht="16.5" customHeight="1">
+    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1">
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>28</v>
       </c>
@@ -4742,297 +4742,287 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="19">
+    <row r="5" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="27">
         <v>12.5</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="19">
-        <v>16</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19">
-        <v>16</v>
-      </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19">
+      <c r="K5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="27">
+        <v>22</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27">
+        <v>27</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27">
         <v>8</v>
       </c>
-      <c r="U5" s="19">
-        <v>40</v>
+      <c r="U5" s="29">
+        <v>57</v>
       </c>
       <c r="V5" s="20">
         <v>100</v>
       </c>
-      <c r="W5" s="21">
-        <v>31</v>
-      </c>
-      <c r="X5" s="21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>53</v>
+      <c r="W5" s="30">
+        <v>80</v>
+      </c>
+      <c r="X5" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="E6" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19">
-        <v>43.5</v>
+      <c r="G6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="27">
+        <v>25</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="29">
+        <v>0</v>
       </c>
       <c r="V6" s="20">
         <v>100</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="30">
+        <v>6</v>
+      </c>
+      <c r="X6" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="21">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="27">
-        <v>24</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27">
-        <v>6</v>
-      </c>
-      <c r="R7" s="27">
-        <v>21</v>
-      </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27">
-        <v>4</v>
-      </c>
-      <c r="U7" s="29">
-        <v>55</v>
+      <c r="O7" s="19">
+        <v>16</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19">
+        <v>16</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19">
+        <v>8</v>
+      </c>
+      <c r="U7" s="19">
+        <v>40</v>
       </c>
       <c r="V7" s="20">
         <v>100</v>
       </c>
-      <c r="W7" s="30">
-        <v>18</v>
-      </c>
-      <c r="X7" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>63</v>
+      <c r="W7" s="21">
+        <v>31</v>
+      </c>
+      <c r="X7" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="27">
+      <c r="F8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="19">
         <v>12.5</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="27">
-        <v>33</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27">
-        <v>18</v>
-      </c>
-      <c r="R8" s="27">
-        <v>2</v>
-      </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27">
-        <v>4</v>
-      </c>
-      <c r="U8" s="29">
+      <c r="K8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="89" t="s">
         <v>57</v>
       </c>
+      <c r="M8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
+        <v>43.5</v>
+      </c>
       <c r="V8" s="20">
-        <v>80</v>
-      </c>
-      <c r="W8" s="30">
-        <v>144</v>
-      </c>
-      <c r="X8" s="30">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="W8" s="21">
+        <v>49</v>
+      </c>
+      <c r="X8" s="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E9" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H9" s="27">
         <v>12.5</v>
@@ -5044,51 +5034,53 @@
         <v>36</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="N9" s="64" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="O9" s="27">
-        <v>22</v>
-      </c>
-      <c r="P9" s="27">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27">
+        <v>6</v>
+      </c>
+      <c r="R9" s="27">
+        <v>21</v>
+      </c>
       <c r="S9" s="27"/>
       <c r="T9" s="27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U9" s="29">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V9" s="20">
         <v>100</v>
       </c>
       <c r="W9" s="30">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="X9" s="30">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>63</v>
@@ -5112,60 +5104,62 @@
         <v>36</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="N10" s="64" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="O10" s="27">
-        <v>24</v>
-      </c>
-      <c r="P10" s="27">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27">
+        <v>18</v>
+      </c>
+      <c r="R10" s="27">
+        <v>2</v>
+      </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U10" s="29">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V10" s="20">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W10" s="30">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="X10" s="30">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E11" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>34</v>
@@ -5180,60 +5174,60 @@
         <v>36</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N11" s="64" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O11" s="27">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P11" s="27">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="U11" s="29">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="V11" s="20">
         <v>100</v>
       </c>
       <c r="W11" s="30">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="X11" s="30">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E12" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>34</v>
@@ -5248,51 +5242,51 @@
         <v>36</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O12" s="27">
-        <v>22</v>
-      </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27">
-        <v>22</v>
-      </c>
-      <c r="R12" s="27">
-        <v>6</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P12" s="27">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
       <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="T12" s="27">
+        <v>8</v>
+      </c>
       <c r="U12" s="29">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V12" s="20">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="W12" s="30">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="X12" s="30">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>63</v>
@@ -5316,65 +5310,63 @@
         <v>36</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="N13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="27">
+        <v>36</v>
+      </c>
+      <c r="P13" s="27">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27">
+        <v>20</v>
+      </c>
+      <c r="U13" s="29">
         <v>104</v>
       </c>
-      <c r="O13" s="27">
-        <v>24</v>
-      </c>
-      <c r="P13" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>12</v>
-      </c>
-      <c r="R13" s="27">
-        <v>8</v>
-      </c>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="29">
-        <v>46</v>
-      </c>
       <c r="V13" s="20">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="W13" s="30">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="X13" s="30">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E14" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H14" s="27">
         <v>12.5</v>
@@ -5386,54 +5378,54 @@
         <v>36</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="N14" s="64" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O14" s="27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R14" s="27">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="29">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V14" s="20">
+        <v>70</v>
+      </c>
+      <c r="W14" s="30">
+        <v>167</v>
+      </c>
+      <c r="X14" s="30">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="W14" s="30">
-        <v>15</v>
-      </c>
-      <c r="X14" s="30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="C15" s="26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="E15" s="94" t="s">
         <v>54</v>
@@ -5442,7 +5434,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H15" s="27">
         <v>12.5</v>
@@ -5454,61 +5446,65 @@
         <v>36</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="N15" s="64" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O15" s="27">
         <v>24</v>
       </c>
       <c r="P15" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="27">
         <v>12</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
+      <c r="R15" s="27">
+        <v>8</v>
+      </c>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="29">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V15" s="20">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="W15" s="30">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="X15" s="30">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E16" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H16" s="27">
         <v>12.5</v>
@@ -5520,58 +5516,60 @@
         <v>36</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O16" s="27">
         <v>24</v>
       </c>
       <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="Q16" s="27">
+        <v>12</v>
+      </c>
       <c r="R16" s="27">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="29">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V16" s="20">
         <v>100</v>
       </c>
       <c r="W16" s="30">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="X16" s="30">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>53</v>
+        <v>113</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="E17" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>55</v>
@@ -5586,31 +5584,27 @@
         <v>36</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>58</v>
+        <v>115</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="N17" s="64" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O17" s="27">
-        <v>10</v>
-      </c>
-      <c r="P17" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="P17" s="27">
+        <v>12</v>
+      </c>
       <c r="Q17" s="27"/>
-      <c r="R17" s="27">
-        <v>12</v>
-      </c>
-      <c r="S17" s="27">
-        <v>6</v>
-      </c>
-      <c r="T17" s="27">
-        <v>8</v>
-      </c>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="29">
         <v>36</v>
       </c>
@@ -5618,33 +5612,33 @@
         <v>100</v>
       </c>
       <c r="W17" s="30">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X17" s="30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E18" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H18" s="27">
         <v>12.5</v>
@@ -5656,121 +5650,119 @@
         <v>36</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O18" s="27">
         <v>24</v>
       </c>
-      <c r="P18" s="27">
-        <v>8</v>
-      </c>
+      <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="S18" s="27"/>
-      <c r="T18" s="27">
-        <v>4</v>
-      </c>
+      <c r="T18" s="27"/>
       <c r="U18" s="29">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="V18" s="20">
         <v>100</v>
       </c>
       <c r="W18" s="30">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="X18" s="30">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>63</v>
+        <v>126</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="H19" s="27">
         <v>12.5</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>139</v>
+        <v>56</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="O19" s="27">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27">
-        <v>27</v>
-      </c>
-      <c r="S19" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="S19" s="27">
+        <v>6</v>
+      </c>
       <c r="T19" s="27">
         <v>8</v>
       </c>
       <c r="U19" s="29">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="V19" s="20">
         <v>100</v>
       </c>
       <c r="W19" s="30">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X19" s="30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>63</v>
@@ -5782,7 +5774,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H20" s="27">
         <v>12.5</v>
@@ -5794,49 +5786,53 @@
         <v>36</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27">
-        <v>12</v>
-      </c>
-      <c r="R20" s="27"/>
+        <v>133</v>
+      </c>
+      <c r="O20" s="27">
+        <v>24</v>
+      </c>
+      <c r="P20" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27">
+        <v>16</v>
+      </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="U20" s="29">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="V20" s="20">
         <v>100</v>
       </c>
       <c r="W20" s="30">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="X20" s="30">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>63</v>
@@ -5848,65 +5844,61 @@
         <v>33</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="H21" s="27">
         <v>12.5</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="O21" s="27">
-        <v>24</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27">
-        <v>6</v>
-      </c>
-      <c r="R21" s="27">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U21" s="29">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="V21" s="20">
         <v>100</v>
       </c>
       <c r="W21" s="30">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="X21" s="30">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>63</v>
@@ -5918,173 +5910,177 @@
         <v>33</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="H22" s="27">
         <v>12.5</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O22" s="27">
         <v>24</v>
       </c>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
+      <c r="Q22" s="27">
+        <v>6</v>
+      </c>
+      <c r="R22" s="27">
+        <v>8</v>
+      </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="U22" s="29">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="V22" s="20">
         <v>100</v>
       </c>
       <c r="W22" s="30">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="X22" s="30">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="G23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="27">
         <v>12.5</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O23" s="27">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P23" s="27"/>
-      <c r="Q23" s="27">
-        <v>18</v>
-      </c>
+      <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="U23" s="29">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V23" s="20">
         <v>100</v>
       </c>
       <c r="W23" s="30">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="X23" s="30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="107" t="s">
+      <c r="F24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="19">
         <v>12.5</v>
       </c>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="107" t="s">
+      <c r="J24" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="109" t="s">
-        <v>77</v>
+      <c r="K24" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O24" s="27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27">
-        <v>12</v>
-      </c>
+      <c r="Q24" s="27">
+        <v>18</v>
+      </c>
+      <c r="R24" s="27"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
+      <c r="T24" s="27">
+        <v>6</v>
+      </c>
       <c r="U24" s="29">
         <v>36</v>
       </c>
@@ -6092,161 +6088,159 @@
         <v>100</v>
       </c>
       <c r="W24" s="30">
+        <v>57</v>
+      </c>
+      <c r="X24" s="30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="108">
+        <v>12.5</v>
+      </c>
+      <c r="I25" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" s="27">
+        <v>24</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27">
+        <v>12</v>
+      </c>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="29">
+        <v>36</v>
+      </c>
+      <c r="V25" s="20">
+        <v>100</v>
+      </c>
+      <c r="W25" s="30">
         <v>118</v>
       </c>
-      <c r="X24" s="30">
+      <c r="X25" s="30">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A25" s="11" t="s">
+    <row r="26" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B26" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C26" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D26" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E26" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F26" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="101" t="s">
+      <c r="G26" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="105">
+      <c r="H26" s="105">
         <v>12.5</v>
       </c>
-      <c r="I25" s="104" t="s">
+      <c r="I26" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="104" t="s">
+      <c r="J26" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N25" s="99" t="s">
+      <c r="N26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="16">
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="16">
         <v>18</v>
       </c>
-      <c r="W25" s="17">
+      <c r="W26" s="17">
         <v>130</v>
       </c>
-      <c r="X25" s="17">
+      <c r="X26" s="17">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A26" s="26" t="s">
+    <row r="27" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B27" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C27" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="E26" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="N26" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="O26" s="27">
-        <v>33</v>
-      </c>
-      <c r="P26" s="27">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27">
-        <v>15</v>
-      </c>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="29">
-        <v>54</v>
-      </c>
-      <c r="V26" s="20">
-        <v>27</v>
-      </c>
-      <c r="W26" s="30">
-        <v>56</v>
-      </c>
-      <c r="X26" s="30">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>114</v>
       </c>
       <c r="E27" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H27" s="27">
         <v>12.5</v>
@@ -6258,174 +6252,178 @@
         <v>36</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>57</v>
+        <v>177</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N27" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+        <v>179</v>
+      </c>
+      <c r="O27" s="27">
+        <v>33</v>
+      </c>
+      <c r="P27" s="27">
+        <v>6</v>
+      </c>
       <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
+      <c r="R27" s="27">
+        <v>15</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="29">
-        <v>43.5</v>
+        <v>54</v>
       </c>
       <c r="V27" s="20">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="W27" s="30">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="X27" s="30">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A28" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>186</v>
+      <c r="D28" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="E28" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="27">
         <v>12.5</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="26" t="s">
         <v>56</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19">
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="29">
         <v>43.5</v>
       </c>
-      <c r="V28" s="62">
+      <c r="V28" s="20">
         <v>100</v>
       </c>
-      <c r="W28" s="21">
-        <v>64</v>
-      </c>
-      <c r="X28" s="21">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A29" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="W28" s="30">
+        <v>67</v>
+      </c>
+      <c r="X28" s="30">
         <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="E29" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="27">
-        <v>25</v>
-      </c>
-      <c r="I29" s="26" t="s">
+      <c r="H29" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="M29" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="O29" s="27">
-        <v>12</v>
-      </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27">
-        <v>12</v>
-      </c>
-      <c r="V29" s="30">
+      <c r="K29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19">
+        <v>43.5</v>
+      </c>
+      <c r="V29" s="62">
         <v>100</v>
       </c>
-      <c r="W29" s="30">
-        <v>1</v>
-      </c>
-      <c r="X29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" customHeight="1">
+      <c r="W29" s="21">
+        <v>64</v>
+      </c>
+      <c r="X29" s="21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="E30" s="94" t="s">
         <v>54</v>
@@ -6434,10 +6432,10 @@
         <v>33</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H30" s="27">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="I30" s="26" t="s">
         <v>35</v>
@@ -6446,164 +6444,166 @@
         <v>36</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="N30" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="27"/>
+        <v>190</v>
+      </c>
+      <c r="O30" s="27">
+        <v>12</v>
+      </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>44</v>
+      <c r="U30" s="27">
+        <v>12</v>
+      </c>
+      <c r="V30" s="30">
+        <v>100</v>
+      </c>
+      <c r="W30" s="30">
+        <v>1</v>
+      </c>
+      <c r="X30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="E31" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="42">
+      <c r="F31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="27">
         <v>12.5</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="N31" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="43">
-        <v>0</v>
-      </c>
-      <c r="V31" s="44">
-        <v>100</v>
-      </c>
-      <c r="W31" s="25">
-        <v>60</v>
-      </c>
-      <c r="X31" s="25">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A32" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>76</v>
+      <c r="K31" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="N31" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="E32" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="27">
+      <c r="G32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="42">
         <v>12.5</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="N32" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="29">
+      <c r="K32" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N32" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="43">
         <v>0</v>
       </c>
-      <c r="V32" s="20">
+      <c r="V32" s="44">
         <v>100</v>
       </c>
-      <c r="W32" s="30">
-        <v>10</v>
-      </c>
-      <c r="X32" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" customHeight="1">
+      <c r="W32" s="25">
+        <v>60</v>
+      </c>
+      <c r="X32" s="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E33" s="94" t="s">
         <v>54</v>
@@ -6648,39 +6648,39 @@
         <v>100</v>
       </c>
       <c r="W33" s="30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X33" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="E34" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="H34" s="27">
         <v>12.5</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="J34" s="26" t="s">
         <v>36</v>
@@ -6710,21 +6710,21 @@
         <v>100</v>
       </c>
       <c r="W34" s="30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X34" s="30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A35" s="26" t="s">
-        <v>211</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>63</v>
@@ -6736,70 +6736,66 @@
         <v>33</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="H35" s="27">
         <v>12.5</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="N35" s="64" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O35" s="27"/>
-      <c r="P35" s="27">
-        <v>30</v>
-      </c>
+      <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
-      <c r="T35" s="27">
-        <v>20</v>
-      </c>
+      <c r="T35" s="27"/>
       <c r="U35" s="29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V35" s="20">
         <v>100</v>
       </c>
       <c r="W35" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="X35" s="30">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E36" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>34</v>
@@ -6814,250 +6810,252 @@
         <v>36</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N36" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="O36" s="27">
-        <v>24</v>
-      </c>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27">
-        <v>10</v>
-      </c>
-      <c r="R36" s="27">
-        <v>10</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="U36" s="29">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V36" s="20">
         <v>100</v>
       </c>
       <c r="W36" s="30">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="X36" s="30">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16.5" customHeight="1">
+    <row r="37" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E37" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="H37" s="27">
         <v>12.5</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="N37" s="64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O37" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27">
-        <v>22</v>
-      </c>
-      <c r="R37" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="R37" s="27">
+        <v>10</v>
+      </c>
       <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
+      <c r="T37" s="27">
+        <v>9</v>
+      </c>
       <c r="U37" s="29">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="V37" s="20">
         <v>100</v>
       </c>
       <c r="W37" s="30">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="X37" s="30">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A38" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="E38" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="19">
+      <c r="G38" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="27">
         <v>12.5</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="18" t="s">
+      <c r="I38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="N38" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19">
-        <v>36</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19">
-        <v>36</v>
+      <c r="K38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" s="27">
+        <v>22</v>
+      </c>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27">
+        <v>22</v>
+      </c>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="29">
+        <v>44</v>
       </c>
       <c r="V38" s="20">
         <v>100</v>
       </c>
-      <c r="W38" s="21">
-        <v>49</v>
-      </c>
-      <c r="X38" s="21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A39" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>209</v>
+      <c r="W38" s="30">
+        <v>136</v>
+      </c>
+      <c r="X38" s="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="E39" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="26" t="s">
+      <c r="F39" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="19">
         <v>12.5</v>
       </c>
-      <c r="I39" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="29">
-        <v>12</v>
+      <c r="I39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19">
+        <v>36</v>
       </c>
       <c r="V39" s="20">
         <v>100</v>
       </c>
-      <c r="W39" s="30">
-        <v>10</v>
-      </c>
-      <c r="X39" s="30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A40" s="26" t="s">
-        <v>237</v>
+      <c r="W39" s="21">
+        <v>49</v>
+      </c>
+      <c r="X39" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="E40" s="94" t="s">
         <v>54</v>
@@ -7072,58 +7070,56 @@
         <v>12.5</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="N40" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="O40" s="27">
-        <v>24</v>
-      </c>
-      <c r="P40" s="27"/>
+        <v>236</v>
+      </c>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27">
+        <v>12</v>
+      </c>
       <c r="Q40" s="27"/>
-      <c r="R40" s="27">
-        <v>36</v>
-      </c>
+      <c r="R40" s="27"/>
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
       <c r="U40" s="29">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="V40" s="20">
         <v>100</v>
       </c>
       <c r="W40" s="30">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="X40" s="30">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E41" s="94" t="s">
         <v>54</v>
@@ -7144,56 +7140,58 @@
         <v>36</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N41" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27">
-        <v>40</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O41" s="27">
+        <v>24</v>
+      </c>
+      <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
+      <c r="R41" s="27">
+        <v>36</v>
+      </c>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
       <c r="U41" s="29">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="V41" s="20">
         <v>100</v>
       </c>
       <c r="W41" s="30">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="X41" s="30">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E42" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>34</v>
@@ -7208,53 +7206,47 @@
         <v>36</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>252</v>
+        <v>245</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="N42" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="O42" s="27">
-        <v>24</v>
-      </c>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27">
-        <v>6</v>
-      </c>
-      <c r="R42" s="27">
-        <v>18</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
       <c r="S42" s="27"/>
-      <c r="T42" s="27">
-        <v>8</v>
-      </c>
+      <c r="T42" s="27"/>
       <c r="U42" s="29">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="V42" s="20">
         <v>100</v>
       </c>
       <c r="W42" s="30">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="X42" s="30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>256</v>
+        <v>249</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>63</v>
@@ -7266,61 +7258,65 @@
         <v>33</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="H43" s="27">
         <v>12.5</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="J43" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="M43" s="26" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="N43" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
+        <v>253</v>
+      </c>
+      <c r="O43" s="27">
+        <v>24</v>
+      </c>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27">
+        <v>6</v>
+      </c>
+      <c r="R43" s="27">
+        <v>18</v>
+      </c>
       <c r="S43" s="27"/>
       <c r="T43" s="27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U43" s="29">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="V43" s="20">
         <v>100</v>
       </c>
       <c r="W43" s="30">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="X43" s="30">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="16.5" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>262</v>
+        <v>255</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>63</v>
@@ -7332,115 +7328,119 @@
         <v>33</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="H44" s="27">
         <v>12.5</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>36</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="N44" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="O44" s="27">
-        <v>11</v>
-      </c>
-      <c r="P44" s="27"/>
+        <v>259</v>
+      </c>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27">
+        <v>30</v>
+      </c>
       <c r="Q44" s="27"/>
-      <c r="R44" s="27">
-        <v>30</v>
-      </c>
+      <c r="R44" s="27"/>
       <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
+      <c r="T44" s="27">
+        <v>16</v>
+      </c>
       <c r="U44" s="29">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="V44" s="20">
         <v>100</v>
       </c>
       <c r="W44" s="30">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="X44" s="30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="E45" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="27">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="M45" s="26" t="s">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="N45" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="O45" s="27"/>
+        <v>263</v>
+      </c>
+      <c r="O45" s="27">
+        <v>11</v>
+      </c>
       <c r="P45" s="27"/>
       <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="R45" s="27">
+        <v>30</v>
+      </c>
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
       <c r="U45" s="29">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V45" s="20">
         <v>100</v>
       </c>
       <c r="W45" s="30">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="X45" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="16.5" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>273</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16.5" customHeight="1">
+    <row r="47" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>277</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16.5" customHeight="1">
+    <row r="48" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>283</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16.5" customHeight="1">
+    <row r="49" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>283</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16.5" customHeight="1">
+    <row r="50" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>290</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16.5" customHeight="1">
+    <row r="51" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>290</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16.5" customHeight="1">
+    <row r="52" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>297</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16.5" customHeight="1">
+    <row r="53" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>303</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16.5" customHeight="1">
+    <row r="54" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>303</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16.5" customHeight="1">
+    <row r="55" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>303</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16.5" customHeight="1">
+    <row r="56" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>308</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16.5" customHeight="1">
+    <row r="57" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>308</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16.5" customHeight="1">
+    <row r="58" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>315</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16.5" customHeight="1">
+    <row r="59" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>319</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16.5" customHeight="1">
+    <row r="60" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>323</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16.5" customHeight="1">
+    <row r="61" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>329</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16.5" customHeight="1">
+    <row r="62" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>329</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16.5" customHeight="1">
+    <row r="63" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>335</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16.5" customHeight="1">
+    <row r="64" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>335</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16.5" customHeight="1">
+    <row r="65" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>340</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16.5" customHeight="1">
+    <row r="66" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>340</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16.5" customHeight="1">
+    <row r="67" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>344</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16.5" customHeight="1">
+    <row r="68" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>350</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16.5" customHeight="1">
+    <row r="69" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>356</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16.5" customHeight="1">
+    <row r="70" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>360</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16.5" customHeight="1">
+    <row r="71" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>364</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16.5" customHeight="1">
+    <row r="72" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>370</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16.5" customHeight="1">
+    <row r="73" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>376</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16.5" customHeight="1">
+    <row r="74" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>382</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16.5" customHeight="1">
+    <row r="75" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>388</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16.5" customHeight="1">
+    <row r="76" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>395</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16.5" customHeight="1">
+    <row r="77" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>399</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16.5" customHeight="1">
+    <row r="78" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>403</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16.5" customHeight="1">
+    <row r="79" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>409</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16.5" customHeight="1">
+    <row r="80" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>414</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16.5" customHeight="1">
+    <row r="81" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>419</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16.5" customHeight="1">
+    <row r="82" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>422</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16.5" customHeight="1">
+    <row r="83" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>426</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16.5" customHeight="1">
+    <row r="84" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>431</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16.5" customHeight="1">
+    <row r="85" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>436</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16.5" customHeight="1">
+    <row r="86" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>441</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16.5" customHeight="1">
+    <row r="87" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>448</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16.5" customHeight="1">
+    <row r="88" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>455</v>
       </c>
@@ -10172,7 +10172,7 @@
       <c r="W88" s="17"/>
       <c r="X88" s="17"/>
     </row>
-    <row r="89" spans="1:24" ht="16.5" customHeight="1">
+    <row r="89" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>461</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16.5" customHeight="1">
+    <row r="90" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>467</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16.5" customHeight="1">
+    <row r="91" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>473</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16.5" customHeight="1">
+    <row r="92" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>478</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16.5" customHeight="1">
+    <row r="93" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>482</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16.5" customHeight="1">
+    <row r="94" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>487</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16.5" customHeight="1">
+    <row r="95" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>493</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16.5" customHeight="1">
+    <row r="96" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>498</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16.5" customHeight="1">
+    <row r="97" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>502</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16.5" customHeight="1">
+    <row r="98" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>507</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16.5" customHeight="1">
+    <row r="99" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>513</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16.5" customHeight="1">
+    <row r="100" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>518</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16.5" customHeight="1">
+    <row r="101" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>524</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16.5" customHeight="1">
+    <row r="102" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
         <v>524</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16.5" customHeight="1">
+    <row r="103" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>530</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16.5" customHeight="1">
+    <row r="104" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
         <v>532</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16.5" customHeight="1">
+    <row r="105" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
         <v>532</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16.5" customHeight="1">
+    <row r="106" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
         <v>536</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16.5" customHeight="1">
+    <row r="107" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
         <v>536</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16.5" customHeight="1">
+    <row r="108" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>540</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16.5" customHeight="1">
+    <row r="109" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
         <v>540</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16.5" customHeight="1">
+    <row r="110" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
         <v>544</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16.5" customHeight="1">
+    <row r="111" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
         <v>544</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16.5" customHeight="1">
+    <row r="112" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
         <v>547</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16.5" customHeight="1">
+    <row r="113" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>547</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16.5" customHeight="1">
+    <row r="114" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>547</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16.5" customHeight="1">
+    <row r="115" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>554</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16.5" customHeight="1">
+    <row r="116" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
         <v>554</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16.5" customHeight="1">
+    <row r="117" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>554</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16.5" customHeight="1">
+    <row r="118" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
         <v>560</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16.5" customHeight="1">
+    <row r="119" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>560</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16.5" customHeight="1">
+    <row r="120" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
         <v>564</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16.5" customHeight="1">
+    <row r="121" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>564</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16.5" customHeight="1">
+    <row r="122" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="34" t="s">
         <v>568</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16.5" customHeight="1">
+    <row r="123" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
         <v>568</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16.5" customHeight="1">
+    <row r="124" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>572</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16.5" customHeight="1">
+    <row r="125" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
         <v>578</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16.5" customHeight="1">
+    <row r="126" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>578</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16.5" customHeight="1">
+    <row r="127" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>583</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16.5" customHeight="1">
+    <row r="128" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>583</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16.5" customHeight="1">
+    <row r="129" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>588</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16.5" customHeight="1">
+    <row r="130" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
         <v>588</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16.5" customHeight="1">
+    <row r="131" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>592</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16.5" customHeight="1">
+    <row r="132" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>592</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16.5" customHeight="1">
+    <row r="133" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
         <v>597</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16.5" customHeight="1">
+    <row r="134" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
         <v>597</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16.5" customHeight="1">
+    <row r="135" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>601</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16.5" customHeight="1">
+    <row r="136" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
         <v>601</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16.5" customHeight="1">
+    <row r="137" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>605</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16.5" customHeight="1">
+    <row r="138" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>605</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16.5" customHeight="1">
+    <row r="139" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
         <v>608</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16.5" customHeight="1">
+    <row r="140" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
         <v>608</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16.5" customHeight="1">
+    <row r="141" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
         <v>611</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16.5" customHeight="1">
+    <row r="142" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
         <v>617</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16.5" customHeight="1">
+    <row r="143" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
         <v>624</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16.5" customHeight="1">
+    <row r="144" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
         <v>630</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16.5" customHeight="1">
+    <row r="145" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
         <v>636</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16.5" customHeight="1">
+    <row r="146" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
         <v>641</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16.5" customHeight="1">
+    <row r="147" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
         <v>647</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16.5" customHeight="1">
+    <row r="148" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>653</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16.5" customHeight="1">
+    <row r="149" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
         <v>660</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16.5" customHeight="1">
+    <row r="150" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
         <v>666</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16.5" customHeight="1">
+    <row r="151" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
         <v>672</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16.5" customHeight="1">
+    <row r="152" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>676</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16.5" customHeight="1">
+    <row r="153" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>682</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16.5" customHeight="1">
+    <row r="154" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
         <v>688</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16.5" customHeight="1">
+    <row r="155" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
         <v>693</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16.5" customHeight="1">
+    <row r="156" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
         <v>701</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16.5" customHeight="1">
+    <row r="157" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
         <v>705</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16.5" customHeight="1">
+    <row r="158" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
         <v>712</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16.5" customHeight="1">
+    <row r="159" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
         <v>718</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16.5" customHeight="1">
+    <row r="160" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="26" t="s">
         <v>724</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16.5" customHeight="1">
+    <row r="161" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="26" t="s">
         <v>730</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16.5" customHeight="1">
+    <row r="162" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26" t="s">
         <v>736</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16.5" customHeight="1">
+    <row r="163" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
         <v>741</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16.5" customHeight="1">
+    <row r="164" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="26" t="s">
         <v>747</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16.5" customHeight="1">
+    <row r="165" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
         <v>750</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16.5" customHeight="1">
+    <row r="166" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="26" t="s">
         <v>753</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16.5" customHeight="1">
+    <row r="167" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
         <v>757</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16.5" customHeight="1">
+    <row r="168" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
         <v>762</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16.5" customHeight="1">
+    <row r="169" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
         <v>768</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16.5" customHeight="1">
+    <row r="170" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
         <v>774</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16.5" customHeight="1">
+    <row r="171" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
         <v>779</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16.5" customHeight="1">
+    <row r="172" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
         <v>783</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16.5" customHeight="1">
+    <row r="173" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
         <v>789</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16.5" customHeight="1">
+    <row r="174" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
         <v>792</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16.5" customHeight="1">
+    <row r="175" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
         <v>798</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16.5" customHeight="1">
+    <row r="176" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="26" t="s">
         <v>802</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16.5" customHeight="1">
+    <row r="177" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
         <v>808</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16.5" customHeight="1">
+    <row r="178" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="33" t="s">
         <v>808</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16.5" customHeight="1">
+    <row r="179" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="33" t="s">
         <v>808</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16.5" customHeight="1">
+    <row r="180" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
         <v>815</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16.5" customHeight="1">
+    <row r="181" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
         <v>815</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16.5" customHeight="1">
+    <row r="182" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
         <v>820</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16.5" customHeight="1">
+    <row r="183" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="34" t="s">
         <v>820</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16.5" customHeight="1">
+    <row r="184" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="26" t="s">
         <v>824</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16.5" customHeight="1">
+    <row r="185" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="26" t="s">
         <v>830</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16.5" customHeight="1">
+    <row r="186" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="33" t="s">
         <v>834</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16.5" customHeight="1">
+    <row r="187" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="33" t="s">
         <v>834</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16.5" customHeight="1">
+    <row r="188" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>834</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16.5" customHeight="1">
+    <row r="189" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
         <v>840</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16.5" customHeight="1">
+    <row r="190" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>840</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16.5" customHeight="1">
+    <row r="191" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="26" t="s">
         <v>845</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16.5" customHeight="1">
+    <row r="192" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
         <v>851</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16.5" customHeight="1">
+    <row r="193" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="26" t="s">
         <v>856</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16.5" customHeight="1">
+    <row r="194" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="26" t="s">
         <v>862</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16.5" customHeight="1">
+    <row r="195" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
         <v>868</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16.5" customHeight="1">
+    <row r="196" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
         <v>873</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16.5" customHeight="1">
+    <row r="197" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
         <v>880</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16.5" customHeight="1">
+    <row r="198" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="33" t="s">
         <v>886</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16.5" customHeight="1">
+    <row r="199" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="22" t="s">
         <v>886</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16.5" customHeight="1">
+    <row r="200" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>894</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16.5" customHeight="1">
+    <row r="201" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="33" t="s">
         <v>900</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16.5" customHeight="1">
+    <row r="202" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="33" t="s">
         <v>906</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16.5" customHeight="1">
+    <row r="203" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
         <v>906</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16.5" customHeight="1">
+    <row r="204" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="26" t="s">
         <v>913</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16.5" customHeight="1">
+    <row r="205" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="26" t="s">
         <v>919</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16.5" customHeight="1">
+    <row r="206" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>926</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16.5" customHeight="1">
+    <row r="207" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="26" t="s">
         <v>931</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16.5" customHeight="1">
+    <row r="208" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
         <v>935</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16.5" customHeight="1">
+    <row r="209" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="26" t="s">
         <v>939</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16.5" customHeight="1">
+    <row r="210" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="26" t="s">
         <v>943</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16.5" customHeight="1">
+    <row r="211" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="26" t="s">
         <v>947</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16.5" customHeight="1">
+    <row r="212" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
         <v>951</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16.5" customHeight="1">
+    <row r="213" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="26" t="s">
         <v>955</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16.5" customHeight="1">
+    <row r="214" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="26" t="s">
         <v>959</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16.5" customHeight="1">
+    <row r="215" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="26" t="s">
         <v>963</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16.5" customHeight="1">
+    <row r="216" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="26" t="s">
         <v>967</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16.5" customHeight="1">
+    <row r="217" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="26" t="s">
         <v>973</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16.5" customHeight="1">
+    <row r="218" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
         <v>977</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16.5" customHeight="1">
+    <row r="219" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
         <v>977</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16.5" customHeight="1">
+    <row r="220" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="33" t="s">
         <v>984</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16.5" customHeight="1">
+    <row r="221" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="33" t="s">
         <v>984</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16.5" customHeight="1">
+    <row r="222" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
         <v>989</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16.5" customHeight="1">
+    <row r="223" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="26" t="s">
         <v>993</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16.5" customHeight="1">
+    <row r="224" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="26" t="s">
         <v>997</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16.5" customHeight="1">
+    <row r="225" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="26" t="s">
         <v>1001</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16.5" customHeight="1">
+    <row r="226" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="26" t="s">
         <v>1005</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16.5" customHeight="1">
+    <row r="227" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="26" t="s">
         <v>1012</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16.5" customHeight="1">
+    <row r="228" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="26" t="s">
         <v>1018</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16.5" customHeight="1">
+    <row r="229" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="26" t="s">
         <v>1024</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16.5" customHeight="1">
+    <row r="230" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="26" t="s">
         <v>1030</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16.5" customHeight="1">
+    <row r="231" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="26" t="s">
         <v>1034</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16.5" customHeight="1">
+    <row r="232" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>1037</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16.5" customHeight="1">
+    <row r="233" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>1037</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16.5" customHeight="1">
+    <row r="234" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>1045</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16.5" customHeight="1">
+    <row r="235" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
         <v>1050</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16.5" customHeight="1">
+    <row r="236" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>1050</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16.5" customHeight="1">
+    <row r="237" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>1050</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16.5" customHeight="1">
+    <row r="238" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>1059</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16.5" customHeight="1">
+    <row r="239" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>1059</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16.5" customHeight="1">
+    <row r="240" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>1059</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16.5" customHeight="1">
+    <row r="241" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="33" t="s">
         <v>1063</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16.5" customHeight="1">
+    <row r="242" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="33" t="s">
         <v>1063</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16.5" customHeight="1">
+    <row r="243" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
         <v>1063</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16.5" customHeight="1">
+    <row r="244" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="26" t="s">
         <v>1070</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16.5" customHeight="1">
+    <row r="245" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="26" t="s">
         <v>1077</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16.5" customHeight="1">
+    <row r="246" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="68" t="s">
         <v>1081</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16.5" customHeight="1">
+    <row r="247" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="26" t="s">
         <v>1087</v>
       </c>
@@ -20420,9 +20420,9 @@
       <sortCondition ref="A3:A246"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="1" priority="49">
-      <formula>OR($A24&lt;&gt;$A25,$E24&lt;&gt;$E25)</formula>
+      <formula>OR($A25&lt;&gt;$A26,$E25&lt;&gt;$E26)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -20436,11 +20436,11 @@
     <hyperlink ref="M79" r:id="rId8" display="mailto:peta.taylor@unimelb.edu.au" xr:uid="{86690AFF-5B33-47D8-B363-6736A1AD6127}"/>
     <hyperlink ref="M60" r:id="rId9" display="mailto:hang-wei.hu@unimelb.edu.au;%20zahra.islam@unimelb.edu.au" xr:uid="{164D8AD9-F3A6-4166-AD02-BE12A730D493}"/>
     <hyperlink ref="M52" r:id="rId10" display="mailto:shukee.lam@unimelb.edu.au;%20laura.brannelly@unimelb.edu.au" xr:uid="{F5673A46-7AD8-4D26-A8EB-673B0C16871E}"/>
-    <hyperlink ref="M42" r:id="rId11" display="mailto:alexis.pang@unimelb.edu.au;%20shukee.lam@unimelb.edu.au;" xr:uid="{21AF4C41-769C-4E40-84FB-3C6B8E1BF2DB}"/>
-    <hyperlink ref="M19" r:id="rId12" display="mailto:bcullen@unimelb.edu.au;%20long.cheng@unimelb.edu.au" xr:uid="{E75EA0E3-D413-4FC9-A5CA-7326D14997E4}"/>
-    <hyperlink ref="M17" r:id="rId13" display="mailto:billy.xynas@unimelb.edu.au;%20barnesc@unimelb.edu.au" xr:uid="{821B6A15-7D3C-42C7-9BEA-558B02F46F7F}"/>
-    <hyperlink ref="M7" r:id="rId14" display="mailto:Sposch@unimelb.edu.au" xr:uid="{1483E737-7074-48A6-A8BF-3FEEFA58EE8C}"/>
-    <hyperlink ref="M6" r:id="rId15" display="mailto:billy.xynas@unimelb.edu.au;%20barnesc@unimelb.edu.au" xr:uid="{64C9C4BD-9B9A-4A8C-A136-E0C84AFD1EBE}"/>
+    <hyperlink ref="M43" r:id="rId11" display="mailto:alexis.pang@unimelb.edu.au;%20shukee.lam@unimelb.edu.au;" xr:uid="{21AF4C41-769C-4E40-84FB-3C6B8E1BF2DB}"/>
+    <hyperlink ref="M5" r:id="rId12" display="mailto:bcullen@unimelb.edu.au;%20long.cheng@unimelb.edu.au" xr:uid="{E75EA0E3-D413-4FC9-A5CA-7326D14997E4}"/>
+    <hyperlink ref="M19" r:id="rId13" display="mailto:billy.xynas@unimelb.edu.au;%20barnesc@unimelb.edu.au" xr:uid="{821B6A15-7D3C-42C7-9BEA-558B02F46F7F}"/>
+    <hyperlink ref="M9" r:id="rId14" display="mailto:Sposch@unimelb.edu.au" xr:uid="{1483E737-7074-48A6-A8BF-3FEEFA58EE8C}"/>
+    <hyperlink ref="M8" r:id="rId15" display="mailto:billy.xynas@unimelb.edu.au;%20barnesc@unimelb.edu.au" xr:uid="{64C9C4BD-9B9A-4A8C-A136-E0C84AFD1EBE}"/>
     <hyperlink ref="M152" r:id="rId16" display="mailto:billy.geary@unimelb.edu.au" xr:uid="{5EFCDC02-5E62-4A36-9C9F-B774BC3F5ACC}"/>
     <hyperlink ref="M187:M190" r:id="rId17" display="mailto:peta.taylor@unimelb.edu.au" xr:uid="{2AA40B55-4BEB-4EB4-9879-C12526DCA4D0}"/>
   </hyperlinks>
@@ -20456,14 +20456,14 @@
       <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="9" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="48"/>
       <c r="C1" s="47"/>
@@ -20479,7 +20479,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>1090</v>
       </c>
@@ -20497,7 +20497,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="50"/>
       <c r="C3" s="51"/>
@@ -20513,7 +20513,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="48"/>
       <c r="C4" s="47"/>
@@ -20529,7 +20529,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="30.75" customHeight="1">
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="61" t="s">
         <v>2</v>
@@ -20549,7 +20549,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>6</v>
       </c>
@@ -20583,7 +20583,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="30">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>41</v>
       </c>
@@ -20616,7 +20616,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="45">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>50</v>
       </c>
@@ -20648,7 +20648,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="45">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>60</v>
       </c>
@@ -20681,7 +20681,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>1092</v>
       </c>
@@ -20714,7 +20714,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="30">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>67</v>
       </c>
@@ -20747,7 +20747,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="45">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>73</v>
       </c>
@@ -20780,7 +20780,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="45">
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>80</v>
       </c>
@@ -20813,7 +20813,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>86</v>
       </c>
@@ -20846,7 +20846,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="45">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>92</v>
       </c>
@@ -20879,7 +20879,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="60">
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>99</v>
       </c>
@@ -20912,7 +20912,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="45">
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>105</v>
       </c>
@@ -20945,7 +20945,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="15">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>111</v>
       </c>
@@ -20972,7 +20972,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="30">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>118</v>
       </c>
@@ -21005,7 +21005,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="30">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>124</v>
       </c>
@@ -21040,7 +21040,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="45">
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
@@ -21073,7 +21073,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="45">
+    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>134</v>
       </c>
@@ -21102,7 +21102,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="60">
+    <row r="23" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>142</v>
       </c>
@@ -21129,7 +21129,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="45">
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>148</v>
       </c>
@@ -21162,7 +21162,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="30">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>154</v>
       </c>
@@ -21189,7 +21189,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="30">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>158</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="30">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>164</v>
       </c>
@@ -21251,7 +21251,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="45">
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>174</v>
       </c>
@@ -21284,7 +21284,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="30">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>180</v>
       </c>
@@ -21316,7 +21316,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="30">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>180</v>
       </c>
@@ -21348,7 +21348,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="30">
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>1094</v>
       </c>
@@ -21375,7 +21375,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>187</v>
       </c>
@@ -21408,7 +21408,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="15">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>191</v>
       </c>
@@ -21441,7 +21441,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="15">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>197</v>
       </c>
@@ -21474,7 +21474,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="15">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>203</v>
       </c>
@@ -21507,7 +21507,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="60">
+    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>211</v>
       </c>
@@ -21540,7 +21540,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="60">
+    <row r="37" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>217</v>
       </c>
@@ -21571,7 +21571,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="45">
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>223</v>
       </c>
@@ -21604,7 +21604,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="15">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
         <v>227</v>
       </c>
@@ -21637,7 +21637,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="30">
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>231</v>
       </c>
@@ -21670,7 +21670,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="30">
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>237</v>
       </c>
@@ -21703,7 +21703,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="60">
+    <row r="42" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>242</v>
       </c>
@@ -21736,7 +21736,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="60">
+    <row r="43" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>248</v>
       </c>
@@ -21769,7 +21769,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="60">
+    <row r="44" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>254</v>
       </c>
@@ -21798,7 +21798,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="45">
+    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>260</v>
       </c>
@@ -21831,7 +21831,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="30">
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>264</v>
       </c>
@@ -21864,7 +21864,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="30">
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>273</v>
       </c>
@@ -21887,7 +21887,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="30">
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>277</v>
       </c>
@@ -21912,7 +21912,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>1096</v>
       </c>
@@ -21945,7 +21945,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="30">
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>1098</v>
       </c>
@@ -21978,7 +21978,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="30">
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>1100</v>
       </c>
@@ -22011,7 +22011,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="60">
+    <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>283</v>
       </c>
@@ -22044,7 +22044,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="90">
+    <row r="53" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>290</v>
       </c>
@@ -22077,7 +22077,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="30">
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>297</v>
       </c>
@@ -22110,7 +22110,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="60">
+    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>303</v>
       </c>
@@ -22143,7 +22143,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="15">
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>1102</v>
       </c>
@@ -22175,7 +22175,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="30">
+    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>308</v>
       </c>
@@ -22198,7 +22198,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="60">
+    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>315</v>
       </c>
@@ -22231,7 +22231,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="90">
+    <row r="59" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>319</v>
       </c>
@@ -22264,7 +22264,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="60">
+    <row r="60" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>323</v>
       </c>
@@ -22287,7 +22287,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="75">
+    <row r="61" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>329</v>
       </c>
@@ -22312,7 +22312,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="75">
+    <row r="62" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>335</v>
       </c>
@@ -22337,7 +22337,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="75">
+    <row r="63" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>340</v>
       </c>
@@ -22362,7 +22362,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="30">
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>344</v>
       </c>
@@ -22395,7 +22395,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="15">
+    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
         <v>350</v>
       </c>
@@ -22428,7 +22428,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="15">
+    <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>1103</v>
       </c>
@@ -22461,7 +22461,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="30">
+    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>356</v>
       </c>
@@ -22494,7 +22494,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="30">
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
         <v>1105</v>
       </c>
@@ -22527,7 +22527,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="30">
+    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
         <v>360</v>
       </c>
@@ -22560,7 +22560,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="15">
+    <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>1107</v>
       </c>
@@ -22593,7 +22593,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="60">
+    <row r="71" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>364</v>
       </c>
@@ -22626,7 +22626,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="30">
+    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>1109</v>
       </c>
@@ -22659,7 +22659,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="30">
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>370</v>
       </c>
@@ -22692,7 +22692,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="15">
+    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>376</v>
       </c>
@@ -22725,7 +22725,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="30">
+    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>395</v>
       </c>
@@ -22758,7 +22758,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="45">
+    <row r="76" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>399</v>
       </c>
@@ -22791,7 +22791,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="15">
+    <row r="77" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
         <v>403</v>
       </c>
@@ -22824,7 +22824,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="30">
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>409</v>
       </c>
@@ -22857,7 +22857,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="30">
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
         <v>414</v>
       </c>
@@ -22890,7 +22890,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="30">
+    <row r="80" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>419</v>
       </c>
@@ -22913,7 +22913,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="30">
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
         <v>422</v>
       </c>
@@ -22946,7 +22946,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="15">
+    <row r="82" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>426</v>
       </c>
@@ -22979,7 +22979,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="30">
+    <row r="83" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
         <v>431</v>
       </c>
@@ -23012,7 +23012,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="15">
+    <row r="84" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>436</v>
       </c>
@@ -23042,7 +23042,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" ht="45">
+    <row r="85" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
         <v>448</v>
       </c>
@@ -23075,7 +23075,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="30">
+    <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
         <v>1111</v>
       </c>
@@ -23108,7 +23108,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="15">
+    <row r="87" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
         <v>467</v>
       </c>
@@ -23143,7 +23143,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="30">
+    <row r="88" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
         <v>473</v>
       </c>
@@ -23170,7 +23170,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="30">
+    <row r="89" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
         <v>478</v>
       </c>
@@ -23203,7 +23203,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="45">
+    <row r="90" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
         <v>487</v>
       </c>
@@ -23236,7 +23236,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="15">
+    <row r="91" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
         <v>498</v>
       </c>
@@ -23269,7 +23269,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="30">
+    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
         <v>502</v>
       </c>
@@ -23302,7 +23302,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="15">
+    <row r="93" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
         <v>507</v>
       </c>
@@ -23335,7 +23335,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="45">
+    <row r="94" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
         <v>513</v>
       </c>
@@ -23368,7 +23368,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="30">
+    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>518</v>
       </c>
@@ -23401,7 +23401,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="30">
+    <row r="96" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
         <v>524</v>
       </c>
@@ -23434,7 +23434,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="30">
+    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
         <v>530</v>
       </c>
@@ -23467,7 +23467,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="30">
+    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
         <v>532</v>
       </c>
@@ -23490,7 +23490,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="30">
+    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
         <v>536</v>
       </c>
@@ -23513,7 +23513,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="30">
+    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
         <v>540</v>
       </c>
@@ -23536,7 +23536,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="30">
+    <row r="101" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
         <v>544</v>
       </c>
@@ -23559,7 +23559,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" ht="15">
+    <row r="102" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
         <v>547</v>
       </c>
@@ -23592,7 +23592,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="15">
+    <row r="103" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="54" t="s">
         <v>554</v>
       </c>
@@ -23625,7 +23625,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="15">
+    <row r="104" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
         <v>560</v>
       </c>
@@ -23658,7 +23658,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="15">
+    <row r="105" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>564</v>
       </c>
@@ -23691,7 +23691,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="15">
+    <row r="106" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>568</v>
       </c>
@@ -23716,7 +23716,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" ht="15">
+    <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
         <v>572</v>
       </c>
@@ -23749,7 +23749,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" ht="15">
+    <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
         <v>578</v>
       </c>
@@ -23782,7 +23782,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" ht="30">
+    <row r="109" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>583</v>
       </c>
@@ -23807,7 +23807,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" ht="15">
+    <row r="110" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="54" t="s">
         <v>588</v>
       </c>
@@ -23840,7 +23840,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="15">
+    <row r="111" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="54" t="s">
         <v>592</v>
       </c>
@@ -23863,7 +23863,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" ht="15">
+    <row r="112" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="54" t="s">
         <v>597</v>
       </c>
@@ -23896,7 +23896,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:14" ht="15">
+    <row r="113" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
         <v>601</v>
       </c>
@@ -23919,7 +23919,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" ht="15">
+    <row r="114" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="54" t="s">
         <v>605</v>
       </c>
@@ -23944,7 +23944,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" ht="15">
+    <row r="115" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
         <v>608</v>
       </c>
@@ -23969,7 +23969,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" ht="75">
+    <row r="116" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="54" t="s">
         <v>611</v>
       </c>
@@ -23996,7 +23996,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:14" ht="30">
+    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="54" t="s">
         <v>617</v>
       </c>
@@ -24023,7 +24023,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="30">
+    <row r="118" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="54" t="s">
         <v>624</v>
       </c>
@@ -24056,7 +24056,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="30">
+    <row r="119" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="54" t="s">
         <v>630</v>
       </c>
@@ -24089,7 +24089,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="45">
+    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="54" t="s">
         <v>636</v>
       </c>
@@ -24118,7 +24118,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="30">
+    <row r="121" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="54" t="s">
         <v>641</v>
       </c>
@@ -24151,7 +24151,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" ht="30">
+    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="54" t="s">
         <v>647</v>
       </c>
@@ -24184,7 +24184,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="30">
+    <row r="123" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>660</v>
       </c>
@@ -24217,7 +24217,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" ht="45">
+    <row r="124" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="54" t="s">
         <v>666</v>
       </c>
@@ -24250,7 +24250,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="1:14" ht="30">
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="54" t="s">
         <v>672</v>
       </c>
@@ -24283,7 +24283,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="15">
+    <row r="126" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="54" t="s">
         <v>682</v>
       </c>
@@ -24316,7 +24316,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="30">
+    <row r="127" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="54" t="s">
         <v>688</v>
       </c>
@@ -24349,7 +24349,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="60">
+    <row r="128" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="54" t="s">
         <v>693</v>
       </c>
@@ -24384,7 +24384,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" ht="30">
+    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="54" t="s">
         <v>701</v>
       </c>
@@ -24417,7 +24417,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" ht="15">
+    <row r="130" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="54" t="s">
         <v>705</v>
       </c>
@@ -24450,7 +24450,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" ht="30">
+    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="54" t="s">
         <v>712</v>
       </c>
@@ -24483,7 +24483,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" ht="15">
+    <row r="132" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="54" t="s">
         <v>718</v>
       </c>
@@ -24516,7 +24516,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" ht="30">
+    <row r="133" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="54" t="s">
         <v>724</v>
       </c>
@@ -24549,7 +24549,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" ht="45">
+    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="54" t="s">
         <v>730</v>
       </c>
@@ -24582,7 +24582,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" ht="45">
+    <row r="135" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="54" t="s">
         <v>736</v>
       </c>
@@ -24615,7 +24615,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" ht="15">
+    <row r="136" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="54" t="s">
         <v>741</v>
       </c>
@@ -24648,7 +24648,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" ht="30">
+    <row r="137" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="54" t="s">
         <v>747</v>
       </c>
@@ -24681,7 +24681,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" ht="30">
+    <row r="138" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="54" t="s">
         <v>750</v>
       </c>
@@ -24704,7 +24704,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" ht="15">
+    <row r="139" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="54" t="s">
         <v>753</v>
       </c>
@@ -24737,7 +24737,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" ht="30">
+    <row r="140" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="54" t="s">
         <v>757</v>
       </c>
@@ -24770,7 +24770,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" ht="30">
+    <row r="141" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="54" t="s">
         <v>762</v>
       </c>
@@ -24801,7 +24801,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" ht="30">
+    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="54" t="s">
         <v>768</v>
       </c>
@@ -24834,7 +24834,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="1:14" ht="45">
+    <row r="143" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="54" t="s">
         <v>774</v>
       </c>
@@ -24867,7 +24867,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" ht="30">
+    <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="54" t="s">
         <v>779</v>
       </c>
@@ -24900,7 +24900,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" ht="15">
+    <row r="145" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="54" t="s">
         <v>783</v>
       </c>
@@ -24927,7 +24927,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" ht="15">
+    <row r="146" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="54" t="s">
         <v>789</v>
       </c>
@@ -24954,7 +24954,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" ht="60">
+    <row r="147" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="54" t="s">
         <v>792</v>
       </c>
@@ -24989,7 +24989,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" ht="15">
+    <row r="148" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="54" t="s">
         <v>798</v>
       </c>
@@ -25022,7 +25022,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="1:14" ht="45">
+    <row r="149" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="54" t="s">
         <v>802</v>
       </c>
@@ -25055,7 +25055,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" ht="15">
+    <row r="150" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="54" t="s">
         <v>808</v>
       </c>
@@ -25088,7 +25088,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="1:14" ht="30">
+    <row r="151" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
         <v>815</v>
       </c>
@@ -25111,7 +25111,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" ht="30">
+    <row r="152" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
         <v>820</v>
       </c>
@@ -25134,7 +25134,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" ht="30">
+    <row r="153" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="54" t="s">
         <v>824</v>
       </c>
@@ -25169,7 +25169,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="1:14" ht="15">
+    <row r="154" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="54" t="s">
         <v>830</v>
       </c>
@@ -25200,7 +25200,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" ht="15">
+    <row r="155" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="54" t="s">
         <v>834</v>
       </c>
@@ -25233,7 +25233,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="1:14" ht="90">
+    <row r="156" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="54" t="s">
         <v>840</v>
       </c>
@@ -25266,7 +25266,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" ht="30">
+    <row r="157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="54" t="s">
         <v>845</v>
       </c>
@@ -25299,7 +25299,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="45">
+    <row r="158" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="54" t="s">
         <v>851</v>
       </c>
@@ -25332,7 +25332,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="45">
+    <row r="159" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="54" t="s">
         <v>856</v>
       </c>
@@ -25363,7 +25363,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="60">
+    <row r="160" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="54" t="s">
         <v>862</v>
       </c>
@@ -25392,7 +25392,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" ht="30">
+    <row r="161" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="54" t="s">
         <v>868</v>
       </c>
@@ -25425,7 +25425,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="1:14" ht="120">
+    <row r="162" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A162" s="54" t="s">
         <v>873</v>
       </c>
@@ -25458,7 +25458,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" ht="45">
+    <row r="163" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="54" t="s">
         <v>880</v>
       </c>
@@ -25491,7 +25491,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" ht="30">
+    <row r="164" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="54" t="s">
         <v>886</v>
       </c>
@@ -25524,7 +25524,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" ht="30">
+    <row r="165" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="54" t="s">
         <v>894</v>
       </c>
@@ -25557,7 +25557,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" ht="60">
+    <row r="166" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="54" t="s">
         <v>1113</v>
       </c>
@@ -25590,7 +25590,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" ht="60">
+    <row r="167" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="54" t="s">
         <v>1115</v>
       </c>
@@ -25623,7 +25623,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" ht="30">
+    <row r="168" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="54" t="s">
         <v>900</v>
       </c>
@@ -25656,7 +25656,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" ht="30">
+    <row r="169" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="54" t="s">
         <v>1117</v>
       </c>
@@ -25685,7 +25685,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" ht="15">
+    <row r="170" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="54" t="s">
         <v>906</v>
       </c>
@@ -25718,7 +25718,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" ht="45">
+    <row r="171" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="54" t="s">
         <v>913</v>
       </c>
@@ -25751,7 +25751,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" ht="30">
+    <row r="172" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="54" t="s">
         <v>919</v>
       </c>
@@ -25784,7 +25784,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" ht="30">
+    <row r="173" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="54" t="s">
         <v>926</v>
       </c>
@@ -25813,7 +25813,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" ht="60">
+    <row r="174" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="54" t="s">
         <v>931</v>
       </c>
@@ -25846,7 +25846,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" ht="30">
+    <row r="175" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="54" t="s">
         <v>1119</v>
       </c>
@@ -25879,7 +25879,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" ht="60">
+    <row r="176" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="54" t="s">
         <v>1121</v>
       </c>
@@ -25912,7 +25912,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="1:14" ht="45">
+    <row r="177" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="54" t="s">
         <v>935</v>
       </c>
@@ -25945,7 +25945,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="1:14" ht="30">
+    <row r="178" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="54" t="s">
         <v>939</v>
       </c>
@@ -25978,7 +25978,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="1:14" ht="30">
+    <row r="179" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="54" t="s">
         <v>943</v>
       </c>
@@ -26011,7 +26011,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="1:14" ht="15">
+    <row r="180" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="54" t="s">
         <v>947</v>
       </c>
@@ -26044,7 +26044,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14" ht="30">
+    <row r="181" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="54" t="s">
         <v>951</v>
       </c>
@@ -26079,7 +26079,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="1:14" ht="60">
+    <row r="182" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="54" t="s">
         <v>955</v>
       </c>
@@ -26112,7 +26112,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" ht="30">
+    <row r="183" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="54" t="s">
         <v>959</v>
       </c>
@@ -26135,7 +26135,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="1:14" ht="30">
+    <row r="184" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="54" t="s">
         <v>963</v>
       </c>
@@ -26168,7 +26168,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" ht="60">
+    <row r="185" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="54" t="s">
         <v>967</v>
       </c>
@@ -26201,7 +26201,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="1:14" ht="30">
+    <row r="186" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="54" t="s">
         <v>973</v>
       </c>
@@ -26234,7 +26234,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" ht="45">
+    <row r="187" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="54" t="s">
         <v>977</v>
       </c>
@@ -26267,7 +26267,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="1:14" ht="45">
+    <row r="188" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="54" t="s">
         <v>984</v>
       </c>
@@ -26294,7 +26294,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" ht="45">
+    <row r="189" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="54" t="s">
         <v>989</v>
       </c>
@@ -26327,7 +26327,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="1:14" ht="30">
+    <row r="190" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="54" t="s">
         <v>993</v>
       </c>
@@ -26360,7 +26360,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="30">
+    <row r="191" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="54" t="s">
         <v>997</v>
       </c>
@@ -26393,7 +26393,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" ht="15">
+    <row r="192" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="54" t="s">
         <v>1001</v>
       </c>
@@ -26426,7 +26426,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" ht="15">
+    <row r="193" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="54" t="s">
         <v>1005</v>
       </c>
@@ -26459,7 +26459,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:14" ht="15">
+    <row r="194" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="54" t="s">
         <v>1012</v>
       </c>
@@ -26492,7 +26492,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="1:14" ht="15">
+    <row r="195" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="54" t="s">
         <v>1018</v>
       </c>
@@ -26525,7 +26525,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="1:14" ht="15">
+    <row r="196" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="54" t="s">
         <v>1024</v>
       </c>
@@ -26558,7 +26558,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="1:14" ht="90">
+    <row r="197" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A197" s="54" t="s">
         <v>1030</v>
       </c>
@@ -26591,7 +26591,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" ht="90">
+    <row r="198" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A198" s="54" t="s">
         <v>1034</v>
       </c>
@@ -26614,7 +26614,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" ht="60">
+    <row r="199" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="54" t="s">
         <v>1063</v>
       </c>
@@ -26647,7 +26647,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" ht="30">
+    <row r="200" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="54" t="s">
         <v>1070</v>
       </c>
@@ -26674,7 +26674,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" ht="15">
+    <row r="201" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="54" t="s">
         <v>1077</v>
       </c>
@@ -26707,7 +26707,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="1:14" ht="15">
+    <row r="202" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="54" t="s">
         <v>1087</v>
       </c>
@@ -26740,7 +26740,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" ht="15">
+    <row r="203" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="46"/>
       <c r="B203" s="48"/>
       <c r="C203" s="47"/>
@@ -26756,7 +26756,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="1:14" ht="15">
+    <row r="204" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="46"/>
       <c r="B204" s="48"/>
       <c r="C204" s="47"/>
@@ -26772,7 +26772,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="1:14" ht="15">
+    <row r="205" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="46"/>
       <c r="B205" s="48"/>
       <c r="C205" s="47"/>
@@ -26788,7 +26788,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="1:14" ht="15">
+    <row r="206" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="59"/>
       <c r="C206" s="58"/>
@@ -26823,7 +26823,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
@@ -26831,12 +26831,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>1123</v>
       </c>
@@ -26847,7 +26847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>1125</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>245</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>644</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>257</v>
       </c>
@@ -26891,7 +26891,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>922</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>614</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>96</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>854</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>151</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>909</v>
       </c>
@@ -26957,7 +26957,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>77</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>490</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>1130</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>663</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>367</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>708</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>1027</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>1132</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>859</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>877</v>
       </c>
@@ -27067,7 +27067,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>916</v>
       </c>
@@ -27078,7 +27078,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>47</v>
       </c>
@@ -27089,7 +27089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>220</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>1134</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>417</v>
       </c>
@@ -27122,7 +27122,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>131</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>633</v>
       </c>
@@ -27144,7 +27144,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
         <v>550</v>
       </c>
@@ -27155,7 +27155,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="s">
         <v>980</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>715</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>311</v>
       </c>
@@ -27188,7 +27188,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>1135</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>177</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>1136</v>
       </c>
@@ -27221,7 +27221,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>786</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>1137</v>
       </c>
@@ -27244,7 +27244,7 @@
       </c>
       <c r="G38" s="83"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>669</v>
       </c>
@@ -27255,7 +27255,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>89</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="77" t="s">
         <v>883</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
         <v>145</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
         <v>406</v>
       </c>
@@ -27299,7 +27299,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
         <v>1021</v>
       </c>
@@ -27310,7 +27310,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
         <v>970</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
         <v>805</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>685</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
         <v>510</v>
       </c>
@@ -27354,7 +27354,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
         <v>721</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="79" t="s">
         <v>744</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="s">
         <v>379</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="77" t="s">
         <v>379</v>
       </c>
@@ -27398,7 +27398,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="s">
         <v>1138</v>
       </c>
@@ -27409,7 +27409,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>1140</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>771</v>
       </c>
@@ -27431,7 +27431,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="s">
         <v>848</v>
       </c>
@@ -27442,7 +27442,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>161</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
         <v>627</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="77" t="s">
         <v>527</v>
       </c>
@@ -27475,7 +27475,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>620</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="79" t="s">
         <v>1143</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="79" t="s">
         <v>892</v>
       </c>
@@ -27506,7 +27506,7 @@
       </c>
       <c r="C62" s="79"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="79" t="s">
         <v>691</v>
       </c>
@@ -27517,7 +27517,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>102</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>923</v>
       </c>
@@ -27539,7 +27539,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="77" t="s">
         <v>83</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="77" t="s">
         <v>280</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="77" t="s">
         <v>439</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>200</v>
       </c>
@@ -27583,7 +27583,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>200</v>
       </c>
@@ -27592,7 +27592,7 @@
       </c>
       <c r="C70" s="77"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>293</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="s">
         <v>293</v>
       </c>
@@ -27612,7 +27612,7 @@
       </c>
       <c r="C72" s="77"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
         <v>814</v>
       </c>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="C73" s="77"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="79" t="s">
         <v>451</v>
       </c>
@@ -27632,7 +27632,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>214</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
         <v>412</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="77" t="s">
         <v>795</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
         <v>1015</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
         <v>765</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>897</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>115</v>
       </c>
@@ -27709,7 +27709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="77" t="s">
         <v>353</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="77" t="s">
         <v>1145</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="77" t="s">
         <v>64</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="77" t="s">
         <v>733</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="77" t="s">
         <v>70</v>
       </c>
@@ -27764,7 +27764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="77" t="s">
         <v>347</v>
       </c>
@@ -27775,7 +27775,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="77" t="s">
         <v>269</v>
       </c>
@@ -27786,7 +27786,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="77" t="s">
         <v>1009</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="77" t="s">
         <v>1147</v>
       </c>
@@ -27808,7 +27808,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="s">
         <v>121</v>
       </c>
@@ -27819,7 +27819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
         <v>1074</v>
       </c>
@@ -27830,7 +27830,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="77" t="s">
         <v>575</v>
       </c>
@@ -27841,7 +27841,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="79" t="s">
         <v>521</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="77" t="s">
         <v>650</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
         <v>108</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
         <v>373</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="77" t="s">
         <v>697</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="77" t="s">
         <v>452</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="77" t="s">
         <v>194</v>
       </c>
@@ -27918,7 +27918,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="85" t="s">
         <v>1149</v>
       </c>
@@ -27929,7 +27929,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="77" t="s">
         <v>727</v>
       </c>
@@ -27970,6 +27970,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Combinedalready xmlns="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3a044001-d8b0-49f6-85a8-77affeddcbfc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C54EE269AC2D5743A1C07D7F79A9DA89" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="81fef21e9e97ab608d5a7f0033992dbd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b" xmlns:ns3="3a044001-d8b0-49f6-85a8-77affeddcbfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b688c6de37b04edd72716dc0b7ae8233" ns2:_="" ns3:_="">
     <xsd:import namespace="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b"/>
@@ -28226,35 +28247,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Combinedalready xmlns="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3a044001-d8b0-49f6-85a8-77affeddcbfc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DF5093-7815-4ABA-8C8F-A5BA3CA3982C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAC938-0809-4193-9829-4A58280B08BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b"/>
+    <ds:schemaRef ds:uri="3a044001-d8b0-49f6-85a8-77affeddcbfc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3B57D3-68D4-4988-B940-E74C0C7FFF42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3B57D3-68D4-4988-B940-E74C0C7FFF42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAC938-0809-4193-9829-4A58280B08BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DF5093-7815-4ABA-8C8F-A5BA3CA3982C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6fe4eccc-aa36-4dd3-ae0b-e54fe5cde11b"/>
+    <ds:schemaRef ds:uri="3a044001-d8b0-49f6-85a8-77affeddcbfc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>